--- a/Joulemeter/BOM.xlsx
+++ b/Joulemeter/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB5CE6-5162-4F73-9620-7145E0BF7688}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972ABC96-66A4-4CDC-8548-BCDBC1215FE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Digikey part #</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>CAN TRX</t>
+  </si>
+  <si>
+    <t>S9337-ND</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>2 pin</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +489,7 @@
       </c>
       <c r="H1">
         <f>SUM(F2:F101)</f>
-        <v>70.83</v>
+        <v>70.930000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -676,9 +685,24 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
